--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3560.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3560.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.258957851985695</v>
+        <v>0.8641925454139709</v>
       </c>
       <c r="B1">
-        <v>1.513802919389235</v>
+        <v>2.611090183258057</v>
       </c>
       <c r="C1">
-        <v>2.035428643797622</v>
+        <v>1.262760877609253</v>
       </c>
       <c r="D1">
-        <v>4.905612461289372</v>
+        <v>1.265014886856079</v>
       </c>
       <c r="E1">
-        <v>3.420986431389551</v>
+        <v>1.394752740859985</v>
       </c>
     </row>
   </sheetData>
